--- a/results/I3_N5_M3_T15_C150_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M3_T15_C150_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.0246384127427</v>
+        <v>188.5120426959607</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05900001525878906</v>
+        <v>0.0280001163482666</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.33463841274267</v>
+        <v>28.51204269596068</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.69</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.18397443193426</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.79636161641809</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000034</v>
+        <v>117.4</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>81.36100000000809</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>118.5430000000143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>149.9060000000191</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>62.29499999999825</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>149.9060000000149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.8560000000216</v>
+        <v>117.4</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>118.5430000000254</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.011</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="4">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4.958</v>
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
